--- a/docs/ReleaseTracker.xlsx
+++ b/docs/ReleaseTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PHP\TCG\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838ACD4F-44CF-4B3E-BD99-AA7AB661A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83891CA-4EB2-425E-8C5E-2855BE5BE81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9756" yWindow="2832" windowWidth="12600" windowHeight="8892" xr2:uid="{00BE8BFB-92E2-4A02-81B3-FAEA1550503C}"/>
+    <workbookView xWindow="10104" yWindow="3180" windowWidth="12600" windowHeight="8892" xr2:uid="{00BE8BFB-92E2-4A02-81B3-FAEA1550503C}"/>
   </bookViews>
   <sheets>
     <sheet name="ReleaseTracker" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="204">
   <si>
     <t>Obsidian Flames</t>
   </si>
@@ -453,9 +453,6 @@
     <t>holo promos + exclusive jumbo</t>
   </si>
   <si>
-    <t>jumbo added</t>
-  </si>
-  <si>
     <t>pixel cosmos + snowflake</t>
   </si>
   <si>
@@ -504,163 +501,154 @@
     <t>Greninja ex Ultra-Premium Collection</t>
   </si>
   <si>
+    <t>Decidueye ex Box</t>
+  </si>
+  <si>
+    <t>9 Legendary ex's (&amp; Pïkachu), 9 other ex's</t>
+  </si>
+  <si>
+    <t>Legendary Warriors Premium Collection</t>
+  </si>
+  <si>
+    <t>Meddling Sparks Premium Collection</t>
+  </si>
+  <si>
+    <t>holo promos(?)</t>
+  </si>
+  <si>
+    <t>English revealed by Intertoys &amp; Ebay</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - ETB</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - Binder Collection</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - Poster Collection</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - Tech Sticker Collections (3)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - Surprise Box</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - 2-Pack Blister</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - Accessory Pouch Collection</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - Super-Premium Collection</t>
+  </si>
+  <si>
+    <t>Prismatic Evolutions - Premium Figure Collection</t>
+  </si>
+  <si>
+    <t>Tera Team Premium Collection</t>
+  </si>
+  <si>
+    <t>Tera Brawlers Premium Collection</t>
+  </si>
+  <si>
+    <t>Koraidon ex &amp; Miraidon ex Deluxe Battle Decks</t>
+  </si>
+  <si>
+    <t>Dark Powers ex Special Collection</t>
+  </si>
+  <si>
+    <t>Paradox Fury Premium Collection</t>
+  </si>
+  <si>
+    <t>Paradox Wisdom Premium Collection</t>
+  </si>
+  <si>
+    <t>promos and ultra rares added, 4 store promos - check holo</t>
+  </si>
+  <si>
+    <t>line holo</t>
+  </si>
+  <si>
+    <t>151 - Blooming Waters Premium Collection</t>
+  </si>
+  <si>
+    <t>Knock Out Collection - Iron Jugulis</t>
+  </si>
+  <si>
+    <t>Knock Out Collection - Chien-Pao</t>
+  </si>
+  <si>
+    <t>Knock Out Collection - Alakazam</t>
+  </si>
+  <si>
+    <t>pixel cosmos already exists</t>
+  </si>
+  <si>
+    <t>Strong Bond Tins</t>
+  </si>
+  <si>
+    <t>Archaludon Two Pack Blister</t>
+  </si>
+  <si>
+    <t>set reprints with logo</t>
+  </si>
+  <si>
+    <t>holos are regular reverse</t>
+  </si>
+  <si>
+    <t>Azure Legends Tins (3)</t>
+  </si>
+  <si>
+    <t>Hop's Zacian ex Box</t>
+  </si>
+  <si>
+    <t>Charizard ex Special Collection</t>
+  </si>
+  <si>
+    <t>Rival Battle Decks</t>
+  </si>
+  <si>
+    <t>Slashing Legends Tins (2)</t>
+  </si>
+  <si>
+    <t>Lillie Premium Tournament Collection</t>
+  </si>
+  <si>
+    <t>Dragapult ex League Battle Deck</t>
+  </si>
+  <si>
+    <t>Iono’s Bellibolt ex Premium Collection</t>
+  </si>
+  <si>
+    <t>151 Mini Tin 5-Pack</t>
+  </si>
+  <si>
+    <t>Paldean Fates Mini Tin 5-Pack</t>
+  </si>
+  <si>
+    <t>Enhanced Two Pack Blister: Zekrom, Latios &amp; Palkia</t>
+  </si>
+  <si>
+    <t>Tsareena ex Premium Collection</t>
+  </si>
+  <si>
+    <t>Tyranitar ex Premium Collection</t>
+  </si>
+  <si>
+    <t>reissue with pixel cosmos</t>
+  </si>
+  <si>
+    <t>ultra rare promos + holo promos(?) + lenticular jumbo</t>
+  </si>
+  <si>
     <t>ultra rares added</t>
-  </si>
-  <si>
-    <t>Decidueye ex Box</t>
-  </si>
-  <si>
-    <t>Enhanced 2-Pack Blister</t>
-  </si>
-  <si>
-    <t>9 Legendary ex's (&amp; Pïkachu), 9 other ex's</t>
-  </si>
-  <si>
-    <t>Legendary Warriors Premium Collection</t>
-  </si>
-  <si>
-    <t>151 5-pack Mini Tins Bundle</t>
-  </si>
-  <si>
-    <t>Meddling Sparks Premium Collection</t>
-  </si>
-  <si>
-    <t>check Scizor and Luxray</t>
-  </si>
-  <si>
-    <t>holo promos(?)</t>
-  </si>
-  <si>
-    <t>all 3 are pixel cosmos</t>
-  </si>
-  <si>
-    <t>Paldean Fates 5-pack Mini Tins Bundle</t>
-  </si>
-  <si>
-    <t>reverse pixel cosmos</t>
-  </si>
-  <si>
-    <t>English confirmed, 3 pixel cosmos</t>
-  </si>
-  <si>
-    <t>English revealed by Intertoys &amp; Ebay</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - ETB</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - Binder Collection</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - Poster Collection</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - Tech Sticker Collections (3)</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Tyranitar ex / Tsareena ex Premium Collections (2)</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - Surprise Box</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - 2-Pack Blister</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - Accessory Pouch Collection</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - Super-Premium Collection</t>
-  </si>
-  <si>
-    <t>Prismatic Evolutions - Premium Figure Collection</t>
-  </si>
-  <si>
-    <t>Tera Team Premium Collection</t>
-  </si>
-  <si>
-    <t>Tera Brawlers Premium Collection</t>
-  </si>
-  <si>
-    <t>Koraidon ex &amp; Miraidon ex Deluxe Battle Decks</t>
-  </si>
-  <si>
-    <t>Dark Powers ex Special Collection</t>
-  </si>
-  <si>
-    <t>Paradox Fury Premium Collection</t>
-  </si>
-  <si>
-    <t>Paradox Wisdom Premium Collection</t>
-  </si>
-  <si>
-    <t>promos and ultra rares added, 4 store promos - check holo</t>
-  </si>
-  <si>
-    <t>line holo</t>
-  </si>
-  <si>
-    <t>151 - Blooming Waters Premium Collection</t>
-  </si>
-  <si>
-    <t>Knock Out Collection - Iron Jugulis</t>
-  </si>
-  <si>
-    <t>Knock Out Collection - Chien-Pao</t>
-  </si>
-  <si>
-    <t>Knock Out Collection - Alakazam</t>
-  </si>
-  <si>
-    <t>pixel cosmos already exists</t>
-  </si>
-  <si>
-    <t>Strong Bond Tins</t>
-  </si>
-  <si>
-    <t>holo cards</t>
-  </si>
-  <si>
-    <t>Archaludon Two Pack Blister</t>
-  </si>
-  <si>
-    <t>set reprints with logo</t>
-  </si>
-  <si>
-    <t>holos are regular reverse</t>
-  </si>
-  <si>
-    <t>Azure Legends Tins (3)</t>
-  </si>
-  <si>
-    <t>Hop's Zacian ex Box</t>
-  </si>
-  <si>
-    <t>Charizard ex Special Collection</t>
-  </si>
-  <si>
-    <t>holo promos(?) + lenticular jumbo</t>
-  </si>
-  <si>
-    <t>Rival Battle Decks</t>
-  </si>
-  <si>
-    <t>Slashing Legends Tins (2)</t>
-  </si>
-  <si>
-    <t>Lillie Premium Tournament Collection</t>
-  </si>
-  <si>
-    <t>Dragapult ex League Battle Deck</t>
-  </si>
-  <si>
-    <t>Iono’s Bellibolt ex Premium Collection</t>
   </si>
 </sst>
 </file>
@@ -1075,17 +1063,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C325CCEF-95C8-46A5-9777-4D9562BD7F1D}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1171,7 +1159,7 @@
         <v>out now</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -1189,10 +1177,10 @@
         <v>out now</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1433,7 +1421,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1490,13 +1478,13 @@
         <v>out now</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1523,7 +1511,7 @@
         <v>out now</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -1553,7 +1541,7 @@
         <v>out now</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
@@ -1602,7 +1590,7 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1827,7 @@
         <v>out now</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>10</v>
@@ -1869,7 +1857,7 @@
         <v>out now</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D50" s="3"/>
     </row>
@@ -1897,7 +1885,7 @@
         <v>out now</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -1925,7 +1913,7 @@
         <v>out now</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D54" s="3"/>
     </row>
@@ -1938,7 +1926,7 @@
         <v>out now</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>10</v>
@@ -1968,7 +1956,7 @@
         <v>out now</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D57" s="3"/>
     </row>
@@ -1996,13 +1984,13 @@
         <v>out now</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2019,9 +2007,6 @@
       <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
@@ -2037,9 +2022,6 @@
       <c r="D61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E61" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
@@ -2050,7 +2032,7 @@
         <v>out now</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D62" s="3"/>
     </row>
@@ -2063,11 +2045,11 @@
         <v>out now</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2079,7 +2061,7 @@
         <v>out now</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>23</v>
@@ -2094,13 +2076,10 @@
         <v>out now</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2112,13 +2091,10 @@
         <v>out now</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E66" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2130,13 +2106,10 @@
         <v>out now</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,13 +2121,10 @@
         <v>out now</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2171,9 +2141,6 @@
       <c r="D69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E69" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
@@ -2184,10 +2151,10 @@
         <v>out now</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2204,8 +2171,8 @@
       <c r="D71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>187</v>
+      <c r="E71" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2222,9 +2189,6 @@
       <c r="D72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E72" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
@@ -2235,13 +2199,10 @@
         <v>out now</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2253,7 +2214,7 @@
         <v>out now</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D74" s="3"/>
     </row>
@@ -2266,13 +2227,10 @@
         <v>out now</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E75" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2284,13 +2242,10 @@
         <v>out now</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E76" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2298,11 +2253,11 @@
         <v>45625</v>
       </c>
       <c r="B77" s="5" t="str">
-        <f t="shared" ref="B77:B79" ca="1" si="18">IF(A77 = "TBA", "TBA", IF(A77 - TODAY() &gt; 0, A77 - TODAY(), "out now"))</f>
+        <f t="shared" ref="B77" ca="1" si="18">IF(A77 = "TBA", "TBA", IF(A77 - TODAY() &gt; 0, A77 - TODAY(), "out now"))</f>
         <v>out now</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>10</v>
@@ -2310,321 +2265,324 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
+        <v>45625</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f t="shared" ref="B78" ca="1" si="19">IF(A78 = "TBA", "TBA", IF(A78 - TODAY() &gt; 0, A78 - TODAY(), "out now"))</f>
+        <v>out now</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
         <v>45630</v>
       </c>
-      <c r="B78" s="5" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>out now</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="B79" s="2" t="str">
+        <f ca="1">IF(A79 = "TBA", "TBA", IF(A79 - TODAY() &gt; 0, A79 - TODAY(), "out now"))</f>
+        <v>out now</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
         <v>45657</v>
       </c>
-      <c r="B79" s="3" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>out now</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B80" s="3" t="str">
+        <f ca="1">IF(A80 = "TBA", "TBA", IF(A80 - TODAY() &gt; 0, A80 - TODAY(), "out now"))</f>
+        <v>out now</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>45660</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <f t="shared" ref="B81:B86" ca="1" si="20">IF(A81 = "TBA", "TBA", IF(A81 - TODAY() &gt; 0, A81 - TODAY(), "out now"))</f>
+        <v>out now</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>45660</v>
-      </c>
-      <c r="B80" s="5" t="str">
-        <f ca="1">IF(A80 = "TBA", "TBA", IF(A80 - TODAY() &gt; 0, A80 - TODAY(), "out now"))</f>
-        <v>out now</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
-        <v>45660</v>
-      </c>
-      <c r="B81" s="3" t="str">
-        <f ca="1">IF(A81 = "TBA", "TBA", IF(A81 - TODAY() &gt; 0, A81 - TODAY(), "out now"))</f>
-        <v>out now</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>45660</v>
       </c>
       <c r="B82" s="3" t="str">
-        <f ca="1">IF(A82 = "TBA", "TBA", IF(A82 - TODAY() &gt; 0, A82 - TODAY(), "out now"))</f>
+        <f t="shared" ca="1" si="20"/>
         <v>out now</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
+        <v>45660</v>
+      </c>
+      <c r="B83" s="3" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>out now</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
         <v>45674</v>
       </c>
-      <c r="B83" s="5" t="str">
-        <f ca="1">IF(A83 = "TBA", "TBA", IF(A83 - TODAY() &gt; 0, A83 - TODAY(), "out now"))</f>
-        <v>out now</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="B84" s="4" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>out now</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+      <c r="E84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
         <v>45674</v>
       </c>
-      <c r="B84" s="5" t="str">
-        <f ca="1">IF(A84 = "TBA", "TBA", IF(A84 - TODAY() &gt; 0, A84 - TODAY(), "out now"))</f>
-        <v>out now</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="B85" s="2" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>out now</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>45674</v>
       </c>
-      <c r="B85" s="3" t="str">
-        <f ca="1">IF(A85 = "TBA", "TBA", IF(A85 - TODAY() &gt; 0, A85 - TODAY(), "out now"))</f>
-        <v>out now</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>45674</v>
-      </c>
-      <c r="B86" s="5" t="str">
-        <f t="shared" ref="B86" ca="1" si="19">IF(A86 = "TBA", "TBA", IF(A86 - TODAY() &gt; 0, A86 - TODAY(), "out now"))</f>
-        <v>out now</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="3" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>out now</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
         <v>45674</v>
       </c>
       <c r="B87" s="5" t="str">
-        <f t="shared" ref="B87:B88" ca="1" si="20">IF(A87 = "TBA", "TBA", IF(A87 - TODAY() &gt; 0, A87 - TODAY(), "out now"))</f>
+        <f t="shared" ref="B87" ca="1" si="21">IF(A87 = "TBA", "TBA", IF(A87 - TODAY() &gt; 0, A87 - TODAY(), "out now"))</f>
         <v>out now</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="9">
-        <v>45695</v>
-      </c>
-      <c r="B88" s="3" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v>out now</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>45674</v>
+      </c>
+      <c r="B88" s="5" t="str">
+        <f t="shared" ref="B88:B89" ca="1" si="22">IF(A88 = "TBA", "TBA", IF(A88 - TODAY() &gt; 0, A88 - TODAY(), "out now"))</f>
+        <v>out now</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>45695</v>
       </c>
       <c r="B89" s="3" t="str">
-        <f ca="1">IF(A89 = "TBA", "TBA", IF(A89 - TODAY() &gt; 0, A89 - TODAY(), "out now"))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>out now</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>45709</v>
-      </c>
-      <c r="B90" s="5" t="str">
-        <f ca="1">IF(A90 = "TBA", "TBA", IF(A90 - TODAY() &gt; 0, A90 - TODAY(), "out now"))</f>
-        <v>out now</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
+        <v>45695</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <f t="shared" ref="B90:B102" ca="1" si="23">IF(A90 = "TBA", "TBA", IF(A90 - TODAY() &gt; 0, A90 - TODAY(), "out now"))</f>
+        <v>out now</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="7">
         <v>45709</v>
       </c>
       <c r="B91" s="5" t="str">
-        <f ca="1">IF(A91 = "TBA", "TBA", IF(A91 - TODAY() &gt; 0, A91 - TODAY(), "out now"))</f>
+        <f t="shared" ca="1" si="23"/>
         <v>out now</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D91" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>45709</v>
+      </c>
+      <c r="B92" s="2" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>out now</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
         <v>45744</v>
       </c>
-      <c r="B92" s="5">
-        <f ca="1">IF(A92 = "TBA", "TBA", IF(A92 - TODAY() &gt; 0, A92 - TODAY(), "out now"))</f>
+      <c r="B93" s="5">
+        <f t="shared" ca="1" si="23"/>
         <v>24</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="C93" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
-        <v>45758</v>
-      </c>
-      <c r="B93" s="5">
-        <f ca="1">IF(A93 = "TBA", "TBA", IF(A93 - TODAY() &gt; 0, A93 - TODAY(), "out now"))</f>
-        <v>38</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="7">
         <v>45758</v>
       </c>
       <c r="B94" s="5">
-        <f ca="1">IF(A94 = "TBA", "TBA", IF(A94 - TODAY() &gt; 0, A94 - TODAY(), "out now"))</f>
+        <f t="shared" ca="1" si="23"/>
         <v>38</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>45758</v>
+      </c>
+      <c r="B95" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>38</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
         <v>45772</v>
       </c>
-      <c r="B95" s="3">
-        <f ca="1">IF(A95 = "TBA", "TBA", IF(A95 - TODAY() &gt; 0, A95 - TODAY(), "out now"))</f>
+      <c r="B96" s="3">
+        <f t="shared" ca="1" si="23"/>
         <v>52</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
+      <c r="C96" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
         <v>45772</v>
       </c>
-      <c r="B96" s="5">
-        <f ca="1">IF(A96 = "TBA", "TBA", IF(A96 - TODAY() &gt; 0, A96 - TODAY(), "out now"))</f>
+      <c r="B97" s="5">
+        <f t="shared" ca="1" si="23"/>
         <v>52</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="C97" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="9">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
         <v>45772</v>
       </c>
-      <c r="B97" s="3">
-        <f ca="1">IF(A97 = "TBA", "TBA", IF(A97 - TODAY() &gt; 0, A97 - TODAY(), "out now"))</f>
+      <c r="B98" s="3">
+        <f t="shared" ca="1" si="23"/>
         <v>52</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>45793</v>
-      </c>
-      <c r="B98" s="5">
-        <f ca="1">IF(A98 = "TBA", "TBA", IF(A98 - TODAY() &gt; 0, A98 - TODAY(), "out now"))</f>
-        <v>73</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="C98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="7">
         <v>45793</v>
       </c>
       <c r="B99" s="5">
-        <f ca="1">IF(A99 = "TBA", "TBA", IF(A99 - TODAY() &gt; 0, A99 - TODAY(), "out now"))</f>
+        <f t="shared" ca="1" si="23"/>
         <v>73</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>23</v>
@@ -2635,11 +2593,11 @@
         <v>45793</v>
       </c>
       <c r="B100" s="5">
-        <f ca="1">IF(A100 = "TBA", "TBA", IF(A100 - TODAY() &gt; 0, A100 - TODAY(), "out now"))</f>
+        <f t="shared" ca="1" si="23"/>
         <v>73</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>23</v>
@@ -2647,17 +2605,32 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
+        <v>45793</v>
+      </c>
+      <c r="B101" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>73</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
         <v>45926</v>
       </c>
-      <c r="B101" s="5">
-        <f ca="1">IF(A101 = "TBA", "TBA", IF(A101 - TODAY() &gt; 0, A101 - TODAY(), "out now"))</f>
+      <c r="B102" s="5">
+        <f t="shared" ca="1" si="23"/>
         <v>206</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>174</v>
+      <c r="C102" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3141,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
